--- a/medicine/Mort/Décès_en_1896/Décès_en_1896.xlsx
+++ b/medicine/Mort/Décès_en_1896/Décès_en_1896.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1896</t>
+          <t>Décès_en_1896</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Décès
@@ -505,7 +517,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>D%C3%A9c%C3%A8s_en_1896</t>
+          <t>Décès_en_1896</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -525,11 +537,50 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Inconnu
-Giovanni Battista Garberini, peintre et sculpteur italien (° 1819).
-Mikhail Touchmalov, compositeur russe d'origine géorgienne (° 1861).
-Janvier
-2 janvier : Walthère Frère-Orban, homme politique belge (° 24 avril 1812).
+          <t>Inconnu</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Giovanni Battista Garberini, peintre et sculpteur italien (° 1819).
+Mikhail Touchmalov, compositeur russe d'origine géorgienne (° 1861).</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Décès_en_1896</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1896</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Janvier</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>2 janvier : Walthère Frère-Orban, homme politique belge (° 24 avril 1812).
 5 janvier : Francesco Saverio Altamura, peintre italien (° 5 août 1822).
 6 janvier : Joseph Suchet, peintre de marines français (° 28 juillet 1824).
 8 janvier : Paul Verlaine, poète français (° 30 mars 1844).
@@ -539,29 +590,199 @@
 25 janvier :
 Frederic Leighton, peintre et sculpteur britannique (° 3 décembre 1830).
 Vicente Palmaroli, peintre espagnol (° 1834).
-29 janvier :  Jules Bordier, pianiste, compositeur et chef d'orchestre français (° 21 décembre 1846).
-Février
-2 février : Vincenzo Petrocelli, peintre italien (° 6 juillet 1823).
+29 janvier :  Jules Bordier, pianiste, compositeur et chef d'orchestre français (° 21 décembre 1846).</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Décès_en_1896</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1896</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Février</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>2 février : Vincenzo Petrocelli, peintre italien (° 6 juillet 1823).
 9 février : Arthur Quentin de Gromard, musicien français (° 1er août 1821).
 12 février : Ambroise Thomas, compositeur français (° 5 août 1811).
-28 février : Ante Starčević, homme politique et écrivain croate (° 23 mai 1823).
-Mars
-5 mars : Évariste de Valernes, peintre français (° 24 juin 1816).
+28 février : Ante Starčević, homme politique et écrivain croate (° 23 mai 1823).</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Décès_en_1896</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1896</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Mars</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>5 mars : Évariste de Valernes, peintre français (° 24 juin 1816).
 9 mars : Louise Haenel de Cronenthall, compositrice autrichienne (° 18 juin 1836).
 18 mars : Camille Rogier, peintre et illustrateur français (° 1er février 1810).
-20 mars : Louis de Gonzague Baillargé, avocat canadien (° 18 février 1808).
-Avril
-4 avril : Ernest Ange Duez, peintre, illustrateur, pastelliste et aquarelliste français (° 7 mars 1843).
+20 mars : Louis de Gonzague Baillargé, avocat canadien (° 18 février 1808).</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Décès_en_1896</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1896</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Avril</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>4 avril : Ernest Ange Duez, peintre, illustrateur, pastelliste et aquarelliste français (° 7 mars 1843).
 13 avril : John Christian Schultz, homme politique canadien (° 1er janvier 1840).
-22 avril : Mårten Eskil Winge, peintre suédois (° 21 septembre 1825).
-Mai
-14 mai : Évariste-Vital Luminais, peintre français (° 13 octobre 1821).
+22 avril : Mårten Eskil Winge, peintre suédois (° 21 septembre 1825).</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Décès_en_1896</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1896</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Mai</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>14 mai : Évariste-Vital Luminais, peintre français (° 13 octobre 1821).
 18 mai : Otto von Camphausen, homme politique allemand (° 21 octobre 1812).
 20 mai : Clara Schumann, pianiste et compositrice allemande, épouse du musicien Robert Schumann (° 13 septembre 1819).
 24 mai : Joseph-Victor Ranvier, peintre de genre et portraitiste français (° 9 juillet 1832).
-29 mai : Auguste Daubrée, géologue français (° 25 juin 1814).
-Juin
-8 juin : Jules Simon (François-Jules Suisse), philosophe et homme d'État français (° 27 décembre 1814).
+29 mai : Auguste Daubrée, géologue français (° 25 juin 1814).</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Décès_en_1896</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1896</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Juin</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>8 juin : Jules Simon (François-Jules Suisse), philosophe et homme d'État français (° 27 décembre 1814).
 9 juin : Adolphe Danhauser, musicien, pédagogue, théoricien de la musique et compositeur français (° 26 février 1835).
 16 juin :
 Léon Delahaye, compositeur français (° 22 novembre 1844).
@@ -569,9 +790,43 @@
 19 juin : Jules Grison, organiste et compositeur français (° 7 décembre 1842).
 23 juin : Joseph Prestwich, géologue britannique (° 12 mars 1812).
 25 juin : Samuel Leonard Tilley, pharmacien et homme politique canadien, un des « pères de la Confédération » canadienne (° 8 mai 1818).
-? juin : Pierre-Adrien-Pascal Lehoux, peintre d'histoire français (° 9 août 1844).*
-Juillet
-1er juillet : Harriet Beecher Stowe, écrivain américaine, auteur de La Case de l'oncle Tom (° 14 juin 1811).
+? juin : Pierre-Adrien-Pascal Lehoux, peintre d'histoire français (° 9 août 1844).*</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Décès_en_1896</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1896</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Juillet</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1er juillet : Harriet Beecher Stowe, écrivain américaine, auteur de La Case de l'oncle Tom (° 14 juin 1811).
 2 juillet : Joanny Domer, peintre français (° 8 août 1833).
 10 juillet :
 Leandro N. Alem, homme politique argentin (° 11 mars 1842).
@@ -579,36 +834,206 @@
 18 juillet : Joséphine Rostkowska, médecin militaire polonaise (° 19 mars 1784).
 26 juillet :
 August Ferdinand Hopfgarten, peintre allemand (° 17 mars 1807).
-Théodore Salomé, organiste, maître de chapelle et compositeur français (° 20 janvier 1834).
-Août
-10 août : Otto Lilienthal, aviateur allemand (° 23 mai 1848).
+Théodore Salomé, organiste, maître de chapelle et compositeur français (° 20 janvier 1834).</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Décès_en_1896</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1896</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Août</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>10 août : Otto Lilienthal, aviateur allemand (° 23 mai 1848).
 13 août : Sir John Everett Millais, peintre britannique (° 8 juin 1829).
-23 août : Gioacchino Pagliei, peintre italien (° 1852).
-Septembre
-7 septembre : François Vernay, peintre français (° 1er novembre 1821).
+23 août : Gioacchino Pagliei, peintre italien (° 1852).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Décès_en_1896</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1896</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Septembre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>7 septembre : François Vernay, peintre français (° 1er novembre 1821).
 13 septembre :
 Charles Marionneau, peintre paysagiste, historien de l'art et archéologue français (° 18 août 1823).
 1896 : Jules Rochard, médecin français, président de l'Académie nationale de médecine (° 30 octobre 1819).
 16 septembre : Antônio Carlos Gomes, compositeur d'opéras brésilien (° 11 juillet 1836).
 23 septembre : Gilbert Duprez, chanteur d'opéra français (° 6 décembre 1806).
-24 septembre : Emmanuel Benner, peintre français (° 28 mars 1836).
-Octobre
-3 octobre : William Morris, peintre, écrivain et designer textile britannique (° 24 mars 1834).
+24 septembre : Emmanuel Benner, peintre français (° 28 mars 1836).</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Décès_en_1896</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1896</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Octobre</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>3 octobre : William Morris, peintre, écrivain et designer textile britannique (° 24 mars 1834).
 10 octobre : Jules Garcin, violoniste, chef d'orchestre et compositeur français (° 11 juillet 1830).
 11 octobre : Anton Bruckner, compositeur autrichien (° 4 septembre 1824).
 15 octobre : Juan Gómez de Lesaca, matador espagnol (° 24 juin 1867).
 20 octobre : Félix Tisserand, astronome français (° 13 janvier 1845).
 24 octobre : Hippolyte Lavoignat, graveur sur bois et peintre français (° 25 janvier 1813).
 27 octobre : Alexeï Bogolioubov, peintre de marines russe (° 28 mars 1824).
-29 octobre : Jan Verhas, peintre belge (° 9 janvier 1834).
-Novembre
-5 novembre : Karl Verner, linguiste danois (° 7 mars 1846).
+29 octobre : Jan Verhas, peintre belge (° 9 janvier 1834).</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Décès_en_1896</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1896</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Novembre</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>5 novembre : Karl Verner, linguiste danois (° 7 mars 1846).
 9 novembre : Émile Delperée, peintre belge (° 15 septembre 1850).
 11 novembre : Félix Lionnet, peintre français (° 15 décembre 1832).
 15 novembre : Ferdinand Dümmler, philologue et archéologue allemand (° 10 février 1859).
-27 novembre : Étienne-Antoine Parrocel, peintre et écrivain français (° 11 octobre 1817).
-Décembre
-7 décembre : Luis Ricardo Falero, peintre espagnol (° 23 mai 1851).
+27 novembre : Étienne-Antoine Parrocel, peintre et écrivain français (° 11 octobre 1817).</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Décès_en_1896</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/D%C3%A9c%C3%A8s_en_1896</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Décès par mois</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Décembre</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">7 décembre : Luis Ricardo Falero, peintre espagnol (° 23 mai 1851).
 10 décembre : Alfred Nobel, industriel suédois et instigateur des prix Nobel (° 21 octobre 1833).
 30 décembre : José Rizal, poète, écrivain et homme politique philippin (° 19 juin 1861).
  Portail sur la mort   Portail des années 1890                    </t>
